--- a/outputs-HGR-r202/test-c__Coriobacteriia_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-c__Coriobacteriia_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Row</t>
   </si>
@@ -274,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,14 +284,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,638 +314,638 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>203.20167903122436</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1646.7305422674035</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>872.14354369114153</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>323.76553199081741</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>728.64048902913385</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2190.9670444342451</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1410.0550192833773</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1124.0207673191637</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1266.1060628432158</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1157.7559206782469</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1500.4264329474834</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1178.7976064932316</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>386.71020757245412</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1581.7066342056148</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1145.8722806278615</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>837.93703421640862</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>981.85540717133313</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1211.2726189184029</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>668.45188820908834</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1013.2924982938403</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1212.7178150416805</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1350.1908329038092</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2231.7205903852773</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1159.1638647738848</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1226.045907871752</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1350.3964681813904</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1364.7346240546942</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1689.2926672607064</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1255.4360945671133</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>1991.609916884837</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1852.543489430527</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2132.0151827861705</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>1863.3657659711196</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>552.23404321882299</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2164.8847371904217</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1664.7701446163917</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>1632.3303167735785</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>595.42095558256483</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>1972.1063948975373</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1571.1983201577664</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2151.8756578849366</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1252.394825567864</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1243.0688408568644</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>1615.5555468411285</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1692.3729497236739</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1465.6206936305603</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2107.1776440109365</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>981.6018919750411</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>155.13848221849102</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>719.17032498576236</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>873.44690691267556</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
+      <c r="A53" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1736.4951812591305</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
+      <c r="A54" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>1048.2976159585087</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
+      <c r="A55" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>224.20213086907594</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>241.12266500665604</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>870.16141821247857</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1228.1043312499246</v>
       </c>
       <c r="C58">
         <v>1</v>

--- a/outputs-HGR-r202/test-c__Coriobacteriia_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-c__Coriobacteriia_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Row</t>
   </si>
@@ -25,9 +25,42 @@
     <t>even_MAG-GUT10928.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11526.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11820.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11972.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT12106.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT12393.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT12533.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT12691.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT13333.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT13881.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1389.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14250.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT151.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT15625.fa</t>
   </si>
   <si>
@@ -37,9 +70,21 @@
     <t>even_MAG-GUT15909.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT16149.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16851.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17247.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17705.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18195.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18429.fa</t>
   </si>
   <si>
@@ -52,9 +97,18 @@
     <t>even_MAG-GUT21962.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT22751.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23753.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT23967.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25075.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25519.fa</t>
   </si>
   <si>
@@ -82,18 +136,45 @@
     <t>even_MAG-GUT26562.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2660.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT26803.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT2783.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT28915.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT29414.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT29494.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT30102.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT31502.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT31546.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32356.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT32404.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT32509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT32879.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32889.fa</t>
   </si>
   <si>
@@ -103,51 +184,159 @@
     <t>even_MAG-GUT33244.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33270.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT33324.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT33557.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT33569.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33914.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT34594.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT35087.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT35198.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT35206.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT35271.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT3531.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT35597.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT35747.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT36138.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT36441.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3651.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT36814.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3702.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT37024.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT37154.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT37934.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT38016.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38263.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT38584.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39108.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39152.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3922.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT4044.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT4062.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT4125.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT4207.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT44688.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT45090.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT46159.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46719.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT4832.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT4979.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT50219.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT54544.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5486.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT56948.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57094.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57392.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT57492.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57682.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57819.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57904.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58156.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58768.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59114.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59205.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT59296.fa</t>
   </si>
   <si>
@@ -166,18 +355,66 @@
     <t>even_MAG-GUT62293.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62370.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT67770.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68023.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68181.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6856.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT68598.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT68659.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT69048.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6929.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74324.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79219.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80384.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80720.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80819.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81523.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81959.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT82008.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT85133.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT8640.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT86606.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT8776.fa</t>
   </si>
   <si>
@@ -190,7 +427,13 @@
     <t>even_MAG-GUT9228.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT9744.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT9760.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9970.fa</t>
   </si>
   <si>
     <t>1-o__Coriobacteriales</t>
@@ -244,7 +487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C140"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -257,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -290,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>872.14354369114153</v>
+        <v>1129.4227132431247</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -301,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>323.76553199081741</v>
+        <v>465.66181836867611</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -312,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>728.64048902913385</v>
+        <v>114.37238107002591</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -323,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2190.9670444342451</v>
+        <v>-31.075706387916057</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -334,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1410.0550192833773</v>
+        <v>1191.0283650311685</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -345,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1124.0207673191637</v>
+        <v>684.50321422698948</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -356,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1266.1060628432158</v>
+        <v>565.52817485525702</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -367,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1157.7559206782469</v>
+        <v>1009.9183033658678</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -378,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1500.4264329474834</v>
+        <v>289.58813591096452</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -389,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1178.7976064932316</v>
+        <v>872.14354369114153</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -400,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>386.71020757245412</v>
+        <v>275.6065879497213</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -411,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1581.7066342056148</v>
+        <v>1120.4330634562159</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -422,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1145.8722806278615</v>
+        <v>323.76553199081741</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -433,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>837.93703421640862</v>
+        <v>728.64048902913385</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -444,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>981.85540717133313</v>
+        <v>2190.9670444342451</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -455,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1211.2726189184029</v>
+        <v>848.11408972593108</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -466,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>668.45188820908834</v>
+        <v>608.35052131745749</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -477,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1013.2924982938403</v>
+        <v>1410.0550192833773</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -488,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1212.7178150416805</v>
+        <v>1191.0413495368559</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -499,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1350.1908329038092</v>
+        <v>343.63288993970195</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -510,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2231.7205903852773</v>
+        <v>1124.0207673191637</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -521,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1159.1638647738848</v>
+        <v>1266.1060628432158</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -532,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1226.045907871752</v>
+        <v>1157.7559206782469</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -543,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1350.3964681813904</v>
+        <v>1500.4264329474834</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -554,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1364.7346240546942</v>
+        <v>1241.7296207129755</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -565,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1689.2926672607064</v>
+        <v>1178.7976064932316</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -576,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1255.4360945671133</v>
+        <v>1035.3934384620616</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -587,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1991.609916884837</v>
+        <v>290.67026912608981</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -598,7 +841,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1852.543489430527</v>
+        <v>386.71020757245412</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -609,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2132.0151827861705</v>
+        <v>1581.7066342056148</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -620,7 +863,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1863.3657659711196</v>
+        <v>1145.8722806278615</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -631,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>552.23404321882299</v>
+        <v>837.93703421640862</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -642,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2164.8847371904217</v>
+        <v>981.85540717133313</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -653,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1664.7701446163917</v>
+        <v>1211.2726189184029</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -664,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>423.54053868853646</v>
+        <v>668.45188820908834</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -675,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1632.3303167735785</v>
+        <v>1013.2924982938403</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -686,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>595.42095558256483</v>
+        <v>1212.7178150416805</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -697,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1972.1063948975373</v>
+        <v>733.43075561648129</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -708,7 +951,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1571.1983201577664</v>
+        <v>628.65227143941456</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -719,7 +962,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2151.8756578849366</v>
+        <v>827.05194546601024</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -730,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1252.394825567864</v>
+        <v>460.67681327204946</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -741,7 +984,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1243.0688408568644</v>
+        <v>1350.1908329038092</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -752,7 +995,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1615.5555468411285</v>
+        <v>2231.7205903852773</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -763,7 +1006,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1692.3729497236739</v>
+        <v>917.54990961091903</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -774,7 +1017,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1465.6206936305603</v>
+        <v>1159.1638647738848</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -785,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2107.1776440109365</v>
+        <v>328.62015093831837</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -796,7 +1039,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>981.6018919750411</v>
+        <v>1226.045907871752</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -807,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>155.13848221849102</v>
+        <v>1014.5524760942685</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -818,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>719.17032498576236</v>
+        <v>1068.9981766426658</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -829,7 +1072,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>873.44690691267556</v>
+        <v>754.67070743659099</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -840,7 +1083,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1736.4951812591305</v>
+        <v>1350.3964681813904</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -851,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1048.2976159585087</v>
+        <v>1364.7346240546942</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -862,7 +1105,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>224.20213086907594</v>
+        <v>1689.2926672607064</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -873,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>241.12266500665604</v>
+        <v>213.87002216703004</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -884,7 +1127,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>870.16141821247857</v>
+        <v>1023.1548020624073</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -895,9 +1138,900 @@
         <v>58</v>
       </c>
       <c r="B59">
+        <v>1255.4360945671133</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1991.609916884837</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>195.70616174753732</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1852.543489430527</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>759.14051053819992</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2132.0151827861705</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>715.10403006257548</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1863.3657659711196</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>552.23404321882299</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>587.15439044739389</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>74.987308634923551</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>612.9653566035937</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1023.6415103874604</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>485.72697858450715</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>313.16179927690132</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>721.18971977932154</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2164.8847371904217</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>581.08011006564277</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>686.25649255830058</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>372.15150093595639</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1664.7701446163917</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>864.32829853755652</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>423.54053868853646</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>890.0794755615741</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>227.52576439746647</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>855.51708919075077</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>948.22738380204009</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1008.991219013147</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>972.1108187508712</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1632.3303167735785</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>595.42095558256483</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>616.97112557379899</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>700.46212549970494</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>750.15030500577745</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>145.44326727598198</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>598.61667729914006</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1004.6513951743748</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1972.1063948975373</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1276.5521845506521</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>708.4288948403788</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1571.1983201577664</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2151.8756578849366</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>424.55176404369695</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1252.394825567864</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>885.94454716894984</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>663.64266140100654</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1156.8380844701726</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1009.9249817001228</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1044.4293027497674</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1243.0688408568644</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1615.5555468411285</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1692.3729497236739</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1465.6206936305603</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2107.1776440109365</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>981.6018919750411</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>264.40485053729026</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>501.02584458237527</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>754.6968661453526</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>682.01652504788535</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1088.0864199225953</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>155.13848221849102</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>619.13248093516802</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>689.25929768508718</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>147.99524106291952</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>598.06967894024649</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1058.5381679765917</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>459.69336524868083</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>180.06953330036825</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>719.17032498576236</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>272.10727900090694</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>606.68309842379017</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>873.44690691267556</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1736.4951812591305</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1076.105766227882</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>359.4901813006486</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1048.2976159585087</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>224.20213086907594</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>241.12266500665604</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>870.16141821247857</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>177.77230198367781</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
         <v>1228.1043312499246</v>
       </c>
-      <c r="C59">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>151.84298103820922</v>
+      </c>
+      <c r="C140">
         <v>1</v>
       </c>
     </row>
